--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Victor/Documents/workspace/graphene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D81416C-D7C9-3342-9252-1BE037996B5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F2F63-AB11-834D-965C-3CA1831C3C73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nodes" sheetId="2" r:id="rId1"/>
@@ -548,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD45"/>
+    <sheetView zoomScale="117" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Victor/Documents/workspace/graphene/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F2F63-AB11-834D-965C-3CA1831C3C73}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B9DCD0-3C36-B647-A61F-977944F7261F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
